--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H2">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I2">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J2">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N2">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O2">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P2">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q2">
-        <v>72.70095483067735</v>
+        <v>82.963815395655</v>
       </c>
       <c r="R2">
-        <v>72.70095483067735</v>
+        <v>331.85526158262</v>
       </c>
       <c r="S2">
-        <v>0.01754462222639627</v>
+        <v>0.01791473135631807</v>
       </c>
       <c r="T2">
-        <v>0.01754462222639627</v>
+        <v>0.01327364491318149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H3">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I3">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J3">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N3">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P3">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q3">
-        <v>47.00062286522741</v>
+        <v>49.76590751713834</v>
       </c>
       <c r="R3">
-        <v>47.00062286522741</v>
+        <v>298.59544510283</v>
       </c>
       <c r="S3">
-        <v>0.01134246688363687</v>
+        <v>0.01074616517600027</v>
       </c>
       <c r="T3">
-        <v>0.01134246688363687</v>
+        <v>0.01194330893560832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H4">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I4">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J4">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N4">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O4">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P4">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q4">
-        <v>144.8977807933397</v>
+        <v>1.15674159486</v>
       </c>
       <c r="R4">
-        <v>144.8977807933397</v>
+        <v>6.940449569160001</v>
       </c>
       <c r="S4">
-        <v>0.0349675851078315</v>
+        <v>0.0002497801580335842</v>
       </c>
       <c r="T4">
-        <v>0.0349675851078315</v>
+        <v>0.0002776061548023324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.2956008327139</v>
+        <v>18.301715</v>
       </c>
       <c r="H5">
-        <v>18.2956008327139</v>
+        <v>36.60343</v>
       </c>
       <c r="I5">
-        <v>0.469799129226562</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J5">
-        <v>0.469799129226562</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N5">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O5">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P5">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q5">
-        <v>1682.142203264368</v>
+        <v>2.582121863061666</v>
       </c>
       <c r="R5">
-        <v>1682.142203264368</v>
+        <v>15.49273117837</v>
       </c>
       <c r="S5">
-        <v>0.4059444550086973</v>
+        <v>0.0005575686133216083</v>
       </c>
       <c r="T5">
-        <v>0.4059444550086973</v>
+        <v>0.0006196828443109108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.194277660268485</v>
+        <v>18.301715</v>
       </c>
       <c r="H6">
-        <v>0.194277660268485</v>
+        <v>36.60343</v>
       </c>
       <c r="I6">
-        <v>0.004988711573719289</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J6">
-        <v>0.004988711573719289</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N6">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O6">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P6">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q6">
-        <v>0.7719982269471978</v>
+        <v>278.22574611812</v>
       </c>
       <c r="R6">
-        <v>0.7719982269471978</v>
+        <v>1669.35447670872</v>
       </c>
       <c r="S6">
-        <v>0.0001863031549280428</v>
+        <v>0.06007847486698779</v>
       </c>
       <c r="T6">
-        <v>0.0001863031549280428</v>
+        <v>0.06677133414244453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.194277660268485</v>
+        <v>18.301715</v>
       </c>
       <c r="H7">
-        <v>0.194277660268485</v>
+        <v>36.60343</v>
       </c>
       <c r="I7">
-        <v>0.004988711573719289</v>
+        <v>0.4544165459658234</v>
       </c>
       <c r="J7">
-        <v>0.004988711573719289</v>
+        <v>0.3632302676703625</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N7">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O7">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P7">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q7">
-        <v>0.4990910724883449</v>
+        <v>1689.726307843228</v>
       </c>
       <c r="R7">
-        <v>0.4990910724883449</v>
+        <v>6758.905231372911</v>
       </c>
       <c r="S7">
-        <v>0.0001204435944998082</v>
+        <v>0.364869825795162</v>
       </c>
       <c r="T7">
-        <v>0.0001204435944998082</v>
+        <v>0.2703446906800149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H8">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I8">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J8">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N8">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O8">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P8">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q8">
-        <v>1.538643201063441</v>
+        <v>1.099981994596</v>
       </c>
       <c r="R8">
-        <v>1.538643201063441</v>
+        <v>6.599891967575999</v>
       </c>
       <c r="S8">
-        <v>0.0003713144313818587</v>
+        <v>0.0002375238148823889</v>
       </c>
       <c r="T8">
-        <v>0.0003713144313818587</v>
+        <v>0.0002639844311196861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.194277660268485</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H9">
-        <v>0.194277660268485</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I9">
-        <v>0.004988711573719289</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J9">
-        <v>0.004988711573719289</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.942441171791</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N9">
-        <v>91.942441171791</v>
+        <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.8640809012928788</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P9">
-        <v>0.8640809012928788</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q9">
-        <v>17.86236235022838</v>
+        <v>0.6598250327871111</v>
       </c>
       <c r="R9">
-        <v>17.86236235022838</v>
+        <v>5.938425295084</v>
       </c>
       <c r="S9">
-        <v>0.004310650392909579</v>
+        <v>0.0001424788403014301</v>
       </c>
       <c r="T9">
-        <v>0.004310650392909579</v>
+        <v>0.0002375268914962663</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.59066778602777</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H10">
-        <v>1.59066778602777</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I10">
-        <v>0.04084557526136947</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J10">
-        <v>0.04084557526136947</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.97368501288477</v>
+        <v>0.063204</v>
       </c>
       <c r="N10">
-        <v>3.97368501288477</v>
+        <v>0.189612</v>
       </c>
       <c r="O10">
-        <v>0.03734494411532919</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P10">
-        <v>0.03734494411532919</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q10">
-        <v>6.320812741817147</v>
+        <v>0.015336745552</v>
       </c>
       <c r="R10">
-        <v>6.320812741817147</v>
+        <v>0.138030709968</v>
       </c>
       <c r="S10">
-        <v>0.001525375725494315</v>
+        <v>3.311729036737086E-06</v>
       </c>
       <c r="T10">
-        <v>0.001525375725494315</v>
+        <v>5.520993165791433E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.59066778602777</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H11">
-        <v>1.59066778602777</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I11">
-        <v>0.04084557526136947</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J11">
-        <v>0.04084557526136947</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.56895760325</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N11">
-        <v>2.56895760325</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O11">
-        <v>0.02414322670693357</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P11">
-        <v>0.02414322670693357</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q11">
-        <v>4.086358103160884</v>
+        <v>0.03423525718622222</v>
       </c>
       <c r="R11">
-        <v>4.086358103160884</v>
+        <v>0.308117314676</v>
       </c>
       <c r="S11">
-        <v>0.0009861439835103607</v>
+        <v>7.392565451344336E-06</v>
       </c>
       <c r="T11">
-        <v>0.0009861439835103607</v>
+        <v>1.232416749129652E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.59066778602777</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H12">
-        <v>1.59066778602777</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I12">
-        <v>0.04084557526136947</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J12">
-        <v>0.04084557526136947</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.91981537628716</v>
+        <v>15.202168</v>
       </c>
       <c r="N12">
-        <v>7.91981537628716</v>
+        <v>45.606504</v>
       </c>
       <c r="O12">
-        <v>0.07443092788485837</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P12">
-        <v>0.07443092788485837</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q12">
-        <v>12.59779519034739</v>
+        <v>3.688877008650667</v>
       </c>
       <c r="R12">
-        <v>12.59779519034739</v>
+        <v>33.199893077856</v>
       </c>
       <c r="S12">
-        <v>0.003040174066694546</v>
+        <v>0.0007965549836553914</v>
       </c>
       <c r="T12">
-        <v>0.003040174066694546</v>
+        <v>0.001327939143617702</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.59066778602777</v>
+        <v>0.2426546666666667</v>
       </c>
       <c r="H13">
-        <v>1.59066778602777</v>
+        <v>0.7279639999999999</v>
       </c>
       <c r="I13">
-        <v>0.04084557526136947</v>
+        <v>0.006024915997716873</v>
       </c>
       <c r="J13">
-        <v>0.04084557526136947</v>
+        <v>0.007223873789270233</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.942441171791</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N13">
-        <v>91.942441171791</v>
+        <v>184.652237</v>
       </c>
       <c r="O13">
-        <v>0.8640809012928788</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P13">
-        <v>0.8640809012928788</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q13">
-        <v>146.2498793407213</v>
+        <v>22.40336350924467</v>
       </c>
       <c r="R13">
-        <v>146.2498793407213</v>
+        <v>134.420181055468</v>
       </c>
       <c r="S13">
-        <v>0.03529388148567025</v>
+        <v>0.004837654064389581</v>
       </c>
       <c r="T13">
-        <v>0.03529388148567025</v>
+        <v>0.005376578162379491</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.68533390214461</v>
+        <v>1.82251</v>
       </c>
       <c r="H14">
-        <v>3.68533390214461</v>
+        <v>5.46753</v>
       </c>
       <c r="I14">
-        <v>0.09463294886937261</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J14">
-        <v>0.09463294886937261</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N14">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O14">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P14">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q14">
-        <v>14.64435609442818</v>
+        <v>8.26165106367</v>
       </c>
       <c r="R14">
-        <v>14.64435609442818</v>
+        <v>49.56990638202</v>
       </c>
       <c r="S14">
-        <v>0.003534062186995525</v>
+        <v>0.001783973635487343</v>
       </c>
       <c r="T14">
-        <v>0.003534062186995525</v>
+        <v>0.001982711777889864</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.68533390214461</v>
+        <v>1.82251</v>
       </c>
       <c r="H15">
-        <v>3.68533390214461</v>
+        <v>5.46753</v>
       </c>
       <c r="I15">
-        <v>0.09463294886937261</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J15">
-        <v>0.09463294886937261</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N15">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P15">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q15">
-        <v>9.467466548429387</v>
+        <v>4.955757649436667</v>
       </c>
       <c r="R15">
-        <v>9.467466548429387</v>
+        <v>44.60181884493</v>
       </c>
       <c r="S15">
-        <v>0.002284744738498916</v>
+        <v>0.00107011793675687</v>
       </c>
       <c r="T15">
-        <v>0.002284744738498916</v>
+        <v>0.001783996743056773</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.68533390214461</v>
+        <v>1.82251</v>
       </c>
       <c r="H16">
-        <v>3.68533390214461</v>
+        <v>5.46753</v>
       </c>
       <c r="I16">
-        <v>0.09463294886937261</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J16">
-        <v>0.09463294886937261</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N16">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O16">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P16">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q16">
-        <v>29.18716410495724</v>
+        <v>0.11518992204</v>
       </c>
       <c r="R16">
-        <v>29.18716410495724</v>
+        <v>1.03670929836</v>
       </c>
       <c r="S16">
-        <v>0.007043618192827763</v>
+        <v>2.487345234136733E-05</v>
       </c>
       <c r="T16">
-        <v>0.007043618192827763</v>
+        <v>4.146660516695831E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.68533390214461</v>
+        <v>1.82251</v>
       </c>
       <c r="H17">
-        <v>3.68533390214461</v>
+        <v>5.46753</v>
       </c>
       <c r="I17">
-        <v>0.09463294886937261</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J17">
-        <v>0.09463294886937261</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N17">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O17">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P17">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q17">
-        <v>338.8385954963378</v>
+        <v>0.2571312533633333</v>
       </c>
       <c r="R17">
-        <v>338.8385954963378</v>
+        <v>2.31418128027</v>
       </c>
       <c r="S17">
-        <v>0.0817705237510504</v>
+        <v>5.552345086046659E-05</v>
       </c>
       <c r="T17">
-        <v>0.0817705237510504</v>
+        <v>9.256330736641985E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.4662325578375</v>
+        <v>1.82251</v>
       </c>
       <c r="H18">
-        <v>13.4662325578375</v>
+        <v>5.46753</v>
       </c>
       <c r="I18">
-        <v>0.3457893724005126</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J18">
-        <v>0.3457893724005126</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N18">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O18">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P18">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q18">
-        <v>53.51056649509982</v>
+        <v>27.70610320168</v>
       </c>
       <c r="R18">
-        <v>53.51056649509982</v>
+        <v>249.35492881512</v>
       </c>
       <c r="S18">
-        <v>0.0129134847879719</v>
+        <v>0.005982697317154918</v>
       </c>
       <c r="T18">
-        <v>0.0129134847879719</v>
+        <v>0.009973772200141891</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.4662325578375</v>
+        <v>1.82251</v>
       </c>
       <c r="H19">
-        <v>13.4662325578375</v>
+        <v>5.46753</v>
       </c>
       <c r="I19">
-        <v>0.3457893724005126</v>
+        <v>0.0452514258466036</v>
       </c>
       <c r="J19">
-        <v>0.3457893724005126</v>
+        <v>0.05425645589486387</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N19">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O19">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P19">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q19">
-        <v>34.59418051658934</v>
+        <v>168.265274227435</v>
       </c>
       <c r="R19">
-        <v>34.59418051658934</v>
+        <v>1009.59164536461</v>
       </c>
       <c r="S19">
-        <v>0.008348471210713856</v>
+        <v>0.03633424005400263</v>
       </c>
       <c r="T19">
-        <v>0.008348471210713856</v>
+        <v>0.04038194526124195</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.4662325578375</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H20">
-        <v>13.4662325578375</v>
+        <v>12.889586</v>
       </c>
       <c r="I20">
-        <v>0.3457893724005126</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J20">
-        <v>0.3457893724005126</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N20">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O20">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P20">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q20">
-        <v>106.6500756722202</v>
+        <v>19.476667139854</v>
       </c>
       <c r="R20">
-        <v>106.6500756722202</v>
+        <v>116.860002839124</v>
       </c>
       <c r="S20">
-        <v>0.02573742384049299</v>
+        <v>0.004205680004745608</v>
       </c>
       <c r="T20">
-        <v>0.02573742384049299</v>
+        <v>0.004674200959907729</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.4662325578375</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H21">
-        <v>13.4662325578375</v>
+        <v>12.889586</v>
       </c>
       <c r="I21">
-        <v>0.3457893724005126</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J21">
-        <v>0.3457893724005126</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>91.942441171791</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N21">
-        <v>91.942441171791</v>
+        <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.8640809012928788</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P21">
-        <v>0.8640809012928788</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q21">
-        <v>1238.118294754631</v>
+        <v>11.68309353905178</v>
       </c>
       <c r="R21">
-        <v>1238.118294754631</v>
+        <v>105.147841851466</v>
       </c>
       <c r="S21">
-        <v>0.2987899925613339</v>
+        <v>0.002522780337002309</v>
       </c>
       <c r="T21">
-        <v>0.2987899925613339</v>
+        <v>0.004205734480350391</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.7113413768854</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H22">
-        <v>1.7113413768854</v>
+        <v>12.889586</v>
       </c>
       <c r="I22">
-        <v>0.0439442626684639</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J22">
-        <v>0.0439442626684639</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>3.97368501288477</v>
+        <v>0.063204</v>
       </c>
       <c r="N22">
-        <v>3.97368501288477</v>
+        <v>0.189612</v>
       </c>
       <c r="O22">
-        <v>0.03734494411532919</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P22">
-        <v>0.03734494411532919</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q22">
-        <v>6.8003315812591</v>
+        <v>0.2715577978479999</v>
       </c>
       <c r="R22">
-        <v>6.8003315812591</v>
+        <v>2.444020180632</v>
       </c>
       <c r="S22">
-        <v>0.001641096033543131</v>
+        <v>5.863863628932177E-05</v>
       </c>
       <c r="T22">
-        <v>0.001641096033543131</v>
+        <v>9.775664210851213E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.7113413768854</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H23">
-        <v>1.7113413768854</v>
+        <v>12.889586</v>
       </c>
       <c r="I23">
-        <v>0.0439442626684639</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J23">
-        <v>0.0439442626684639</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.56895760325</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N23">
-        <v>2.56895760325</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O23">
-        <v>0.02414322670693357</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P23">
-        <v>0.02414322670693357</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q23">
-        <v>4.396363441906072</v>
+        <v>0.6061814756415554</v>
       </c>
       <c r="R23">
-        <v>4.396363441906072</v>
+        <v>5.455633280773999</v>
       </c>
       <c r="S23">
-        <v>0.001060956296073762</v>
+        <v>0.0001308953576629224</v>
       </c>
       <c r="T23">
-        <v>0.001060956296073762</v>
+        <v>0.000218216033701489</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.7113413768854</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H24">
-        <v>1.7113413768854</v>
+        <v>12.889586</v>
       </c>
       <c r="I24">
-        <v>0.0439442626684639</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J24">
-        <v>0.0439442626684639</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.91981537628716</v>
+        <v>15.202168</v>
       </c>
       <c r="N24">
-        <v>7.91981537628716</v>
+        <v>45.606504</v>
       </c>
       <c r="O24">
-        <v>0.07443092788485837</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P24">
-        <v>0.07443092788485837</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q24">
-        <v>13.55350775073343</v>
+        <v>65.31655060748267</v>
       </c>
       <c r="R24">
-        <v>13.55350775073343</v>
+        <v>587.848955467344</v>
       </c>
       <c r="S24">
-        <v>0.003270812245629711</v>
+        <v>0.01410408202267525</v>
       </c>
       <c r="T24">
-        <v>0.003270812245629711</v>
+        <v>0.02351295640227637</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.7113413768854</v>
+        <v>4.296528666666666</v>
       </c>
       <c r="H25">
-        <v>1.7113413768854</v>
+        <v>12.889586</v>
       </c>
       <c r="I25">
-        <v>0.0439442626684639</v>
+        <v>0.1066792765787147</v>
       </c>
       <c r="J25">
-        <v>0.0439442626684639</v>
+        <v>0.1279084439064906</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>91.942441171791</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N25">
-        <v>91.942441171791</v>
+        <v>184.652237</v>
       </c>
       <c r="O25">
-        <v>0.8640809012928788</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P25">
-        <v>0.8640809012928788</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q25">
-        <v>157.3449038691377</v>
+        <v>396.6818148173136</v>
       </c>
       <c r="R25">
-        <v>157.3449038691377</v>
+        <v>2380.090888903882</v>
       </c>
       <c r="S25">
-        <v>0.0379713980932173</v>
+        <v>0.08565720022033925</v>
       </c>
       <c r="T25">
-        <v>0.0379713980932173</v>
+        <v>0.09519957938814612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.85988766666667</v>
+      </c>
+      <c r="H26">
+        <v>41.579663</v>
+      </c>
+      <c r="I26">
+        <v>0.3441296228774725</v>
+      </c>
+      <c r="J26">
+        <v>0.4126113897285982</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.533117</v>
+      </c>
+      <c r="N26">
+        <v>9.066234</v>
+      </c>
+      <c r="O26">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P26">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q26">
+        <v>62.82849239985699</v>
+      </c>
+      <c r="R26">
+        <v>376.9709543991419</v>
+      </c>
+      <c r="S26">
+        <v>0.01356682497662538</v>
+      </c>
+      <c r="T26">
+        <v>0.01507819573935423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>13.85988766666667</v>
+      </c>
+      <c r="H27">
+        <v>41.579663</v>
+      </c>
+      <c r="I27">
+        <v>0.3441296228774725</v>
+      </c>
+      <c r="J27">
+        <v>0.4126113897285982</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N27">
+        <v>8.157581</v>
+      </c>
+      <c r="O27">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P27">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q27">
+        <v>37.68771876391145</v>
+      </c>
+      <c r="R27">
+        <v>339.189468875203</v>
+      </c>
+      <c r="S27">
+        <v>0.008138070240237541</v>
+      </c>
+      <c r="T27">
+        <v>0.013567000705876</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>13.85988766666667</v>
+      </c>
+      <c r="H28">
+        <v>41.579663</v>
+      </c>
+      <c r="I28">
+        <v>0.3441296228774725</v>
+      </c>
+      <c r="J28">
+        <v>0.4126113897285982</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.063204</v>
+      </c>
+      <c r="N28">
+        <v>0.189612</v>
+      </c>
+      <c r="O28">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P28">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q28">
+        <v>0.8760003400839999</v>
+      </c>
+      <c r="R28">
+        <v>7.884003060755999</v>
+      </c>
+      <c r="S28">
+        <v>0.0001891584986274632</v>
+      </c>
+      <c r="T28">
+        <v>0.0003153466864555265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>13.85988766666667</v>
+      </c>
+      <c r="H29">
+        <v>41.579663</v>
+      </c>
+      <c r="I29">
+        <v>0.3441296228774725</v>
+      </c>
+      <c r="J29">
+        <v>0.4126113897285982</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P29">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q29">
+        <v>1.955440731301888</v>
+      </c>
+      <c r="R29">
+        <v>17.598966581717</v>
+      </c>
+      <c r="S29">
+        <v>0.0004222466772702227</v>
+      </c>
+      <c r="T29">
+        <v>0.0007039286709832693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>13.85988766666667</v>
+      </c>
+      <c r="H30">
+        <v>41.579663</v>
+      </c>
+      <c r="I30">
+        <v>0.3441296228774725</v>
+      </c>
+      <c r="J30">
+        <v>0.4126113897285982</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.202168</v>
+      </c>
+      <c r="N30">
+        <v>45.606504</v>
+      </c>
+      <c r="O30">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P30">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q30">
+        <v>210.7003407697946</v>
+      </c>
+      <c r="R30">
+        <v>1896.303066928152</v>
+      </c>
+      <c r="S30">
+        <v>0.04549742539653291</v>
+      </c>
+      <c r="T30">
+        <v>0.07584889098380226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>13.85988766666667</v>
+      </c>
+      <c r="H31">
+        <v>41.579663</v>
+      </c>
+      <c r="I31">
+        <v>0.3441296228774725</v>
+      </c>
+      <c r="J31">
+        <v>0.4126113897285982</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N31">
+        <v>184.652237</v>
+      </c>
+      <c r="O31">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P31">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q31">
+        <v>1279.629631109355</v>
+      </c>
+      <c r="R31">
+        <v>7677.777786656131</v>
+      </c>
+      <c r="S31">
+        <v>0.2763158970881789</v>
+      </c>
+      <c r="T31">
+        <v>0.3070980269421269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.751899</v>
+      </c>
+      <c r="H32">
+        <v>3.503798</v>
+      </c>
+      <c r="I32">
+        <v>0.04349821273366894</v>
+      </c>
+      <c r="J32">
+        <v>0.03476956901041461</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.533117</v>
+      </c>
+      <c r="N32">
+        <v>9.066234</v>
+      </c>
+      <c r="O32">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P32">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q32">
+        <v>7.941563139182999</v>
+      </c>
+      <c r="R32">
+        <v>31.766252556732</v>
+      </c>
+      <c r="S32">
+        <v>0.001714855681470412</v>
+      </c>
+      <c r="T32">
+        <v>0.001270595965993227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.751899</v>
+      </c>
+      <c r="H33">
+        <v>3.503798</v>
+      </c>
+      <c r="I33">
+        <v>0.04349821273366894</v>
+      </c>
+      <c r="J33">
+        <v>0.03476956901041461</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N33">
+        <v>8.157581</v>
+      </c>
+      <c r="O33">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P33">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q33">
+        <v>4.763752665439667</v>
+      </c>
+      <c r="R33">
+        <v>28.582515992638</v>
+      </c>
+      <c r="S33">
+        <v>0.001028657479677161</v>
+      </c>
+      <c r="T33">
+        <v>0.001143251929176216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.751899</v>
+      </c>
+      <c r="H34">
+        <v>3.503798</v>
+      </c>
+      <c r="I34">
+        <v>0.04349821273366894</v>
+      </c>
+      <c r="J34">
+        <v>0.03476956901041461</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.063204</v>
+      </c>
+      <c r="N34">
+        <v>0.189612</v>
+      </c>
+      <c r="O34">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P34">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q34">
+        <v>0.110727024396</v>
+      </c>
+      <c r="R34">
+        <v>0.664362146376</v>
+      </c>
+      <c r="S34">
+        <v>2.390975977272501E-05</v>
+      </c>
+      <c r="T34">
+        <v>2.657335364429242E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.751899</v>
+      </c>
+      <c r="H35">
+        <v>3.503798</v>
+      </c>
+      <c r="I35">
+        <v>0.04349821273366894</v>
+      </c>
+      <c r="J35">
+        <v>0.03476956901041461</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P35">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q35">
+        <v>0.2471690062803333</v>
+      </c>
+      <c r="R35">
+        <v>1.483014037682</v>
+      </c>
+      <c r="S35">
+        <v>5.33722602559111E-05</v>
+      </c>
+      <c r="T35">
+        <v>5.931803414409196E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.751899</v>
+      </c>
+      <c r="H36">
+        <v>3.503798</v>
+      </c>
+      <c r="I36">
+        <v>0.04349821273366894</v>
+      </c>
+      <c r="J36">
+        <v>0.03476956901041461</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.202168</v>
+      </c>
+      <c r="N36">
+        <v>45.606504</v>
+      </c>
+      <c r="O36">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P36">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q36">
+        <v>26.632662917032</v>
+      </c>
+      <c r="R36">
+        <v>159.795977502192</v>
+      </c>
+      <c r="S36">
+        <v>0.005750904767176247</v>
+      </c>
+      <c r="T36">
+        <v>0.006391566774633657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.751899</v>
+      </c>
+      <c r="H37">
+        <v>3.503798</v>
+      </c>
+      <c r="I37">
+        <v>0.04349821273366894</v>
+      </c>
+      <c r="J37">
+        <v>0.03476956901041461</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N37">
+        <v>184.652237</v>
+      </c>
+      <c r="O37">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P37">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q37">
+        <v>161.7460346740315</v>
+      </c>
+      <c r="R37">
+        <v>646.984138696126</v>
+      </c>
+      <c r="S37">
+        <v>0.03492651278531648</v>
+      </c>
+      <c r="T37">
+        <v>0.02587826295282313</v>
       </c>
     </row>
   </sheetData>
